--- a/+task2/20220927. Задание 02ои. Сойка.xlsx
+++ b/+task2/20220927. Задание 02ои. Сойка.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sofiasoyka\Desktop\файлы\вуз\Сафронов\инфа\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sofiasoyka\Desktop\файлы\вуз\Сафронов\инфа\+task2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7EC9D65-30AE-4B93-BFCE-98EFEFC4C968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1EB2FB-C3DC-46AC-9E22-D4E0391E3300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{D21F2A0E-44E5-48B4-8A56-5E7F4FE20E26}"/>
   </bookViews>
@@ -212,10 +212,10 @@
     <t>Формат индекса:</t>
   </si>
   <si>
-    <t>Общий формат:</t>
-  </si>
-  <si>
     <t>BOURD TIME ВРЕМЯ ПОСАДКИ</t>
+  </si>
+  <si>
+    <t>Временной формат:</t>
   </si>
 </sst>
 </file>
@@ -1300,13 +1300,13 @@
   <dimension ref="B2:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="N34" sqref="N34"/>
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="47.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1315,7 +1315,7 @@
         <v>56</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D2" s="21" t="s">
         <v>57</v>
@@ -1432,7 +1432,7 @@
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C18" s="26"/>
       <c r="D18" s="26"/>
